--- a/Project0/TempMohit/Data/Orders.xlsx
+++ b/Project0/TempMohit/Data/Orders.xlsx
@@ -1,119 +1,179 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
-  <workbookPr/>
+<x:workbook xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <x:fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <x:workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Revature\Project0\Damle_M_Valentine_N_P0\Project0\TempMohit\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2867AB64-21EB-4C73-9029-F7AFC7F8A6CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
-  <bookViews>
-    <workbookView xWindow="-20610" yWindow="-120" windowWidth="19800" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-  </bookViews>
-  <sheets>
-    <sheet name="OrderList" sheetId="1" r:id="rId1"/>
-    <sheet name="OrderSummaries" sheetId="2" r:id="rId2"/>
-  </sheets>
-  <calcPr calcId="162913"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9604A58C-0CEC-4B9B-AD2A-54E4597C5936}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <x:bookViews>
+    <x:workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="0" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </x:bookViews>
+  <x:sheets>
+    <x:sheet name="OrderList" sheetId="1" r:id="rId1"/>
+    <x:sheet name="Orders" sheetId="2" r:id="rId2"/>
+  </x:sheets>
+  <x:definedNames/>
+  <x:calcPr calcId="162913"/>
+  <x:extLst>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
-</workbook>
+    </x:ext>
+  </x:extLst>
+</x:workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>OrderTotal</t>
-  </si>
-  <si>
-    <t>Client Id</t>
-  </si>
-  <si>
-    <t>Order Id</t>
-  </si>
-  <si>
-    <t>OrderId</t>
-  </si>
-  <si>
-    <t>Product</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>UnitPrice</t>
-  </si>
-  <si>
-    <t>FullPrice</t>
-  </si>
-  <si>
-    <t>Discount</t>
-  </si>
-  <si>
-    <t>FinalPrice</t>
-  </si>
-  <si>
-    <t>Vendor</t>
-  </si>
-  <si>
-    <t>Status</t>
-  </si>
-</sst>
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+  <x:si>
+    <x:t>OrderId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ClientId</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Total</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Product</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Quantity</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UnitPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FullPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Discount</x:t>
+  </x:si>
+  <x:si>
+    <x:t>FinalPrice</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Vendor</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Status</x:t>
+  </x:si>
+  <x:si>
+    <x:t>bread</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Cupid Wares</x:t>
+  </x:si>
+  <x:si>
+    <x:t>out of stock</x:t>
+  </x:si>
+  <x:si>
+    <x:t>eggs</x:t>
+  </x:si>
+  <x:si>
+    <x:t>placed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rain jacket</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Prawnz Store</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xbox 720</x:t>
+  </x:si>
+  <x:si>
+    <x:t>none</x:t>
+  </x:si>
+  <x:si>
+    <x:t>no vendor match</x:t>
+  </x:si>
+  <x:si>
+    <x:t>milk</x:t>
+  </x:si>
+  <x:si>
+    <x:t>mild dudz</x:t>
+  </x:si>
+  <x:si>
+    <x:t>jacket</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Jelly Outlet</x:t>
+  </x:si>
+  <x:si>
+    <x:t>xbox</x:t>
+  </x:si>
+</x:sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-  </fonts>
-  <fills count="2">
-    <fill>
-      <patternFill patternType="none"/>
-    </fill>
-    <fill>
-      <patternFill patternType="gray125"/>
-    </fill>
-  </fills>
-  <borders count="1">
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-  </borders>
-  <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-  </cellStyleXfs>
-  <cellXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-  </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-  </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+<x:styleSheet xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" mc:Ignorable="x14ac x16r2 xr">
+  <x:numFmts count="1">
+    <x:numFmt numFmtId="0" formatCode=""/>
+  </x:numFmts>
+  <x:fonts count="2" x14ac:knownFonts="1">
+    <x:font>
+      <x:sz val="11"/>
+      <x:color theme="1"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+      <x:scheme val="minor"/>
+    </x:font>
+    <x:font>
+      <x:vertAlign val="baseline"/>
+      <x:sz val="11"/>
+      <x:color rgb="FF000000"/>
+      <x:name val="Calibri"/>
+      <x:family val="2"/>
+    </x:font>
+  </x:fonts>
+  <x:fills count="2">
+    <x:fill>
+      <x:patternFill patternType="none"/>
+    </x:fill>
+    <x:fill>
+      <x:patternFill patternType="gray125"/>
+    </x:fill>
+  </x:fills>
+  <x:borders count="1">
+    <x:border>
+      <x:left/>
+      <x:right/>
+      <x:top/>
+      <x:bottom/>
+      <x:diagonal/>
+    </x:border>
+  </x:borders>
+  <x:cellStyleXfs count="2">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellStyleXfs>
+  <x:cellXfs count="3">
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1"/>
+    <x:xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="0" applyAlignment="1" applyProtection="1">
+      <x:alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" relativeIndent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <x:protection locked="1" hidden="0"/>
+    </x:xf>
+  </x:cellXfs>
+  <x:cellStyles count="1">
+    <x:cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </x:cellStyles>
+  <x:tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <x:extLst>
+    <x:ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+    </x:ext>
+    <x:ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
       <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
-</styleSheet>
+    </x:ext>
+  </x:extLst>
+</x:styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -378,71 +438,662 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{00000000-0001-0000-0000-000000000000}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:C3"/>
+  <x:sheetViews>
+    <x:sheetView workbookViewId="0">
+      <x:selection activeCell="C6" sqref="C6 C6:C6"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="n">
+        <x:v>25.2</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:3">
+      <x:c r="A4" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:3">
+      <x:c r="A5" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="n">
+        <x:v>35.95</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:3">
+      <x:c r="A6" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20AC57E0-4944-452F-9054-5377EECEF794}">
-  <dimension ref="A1:I1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:I1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C1" t="s">
-        <v>5</v>
-      </c>
-      <c r="D1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E1" t="s">
-        <v>7</v>
-      </c>
-      <c r="F1" t="s">
-        <v>8</v>
-      </c>
-      <c r="G1" t="s">
-        <v>9</v>
-      </c>
-      <c r="H1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I1" t="s">
-        <v>11</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
+<x:worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xr:uid="{20AC57E0-4944-452F-9054-5377EECEF794}" mc:Ignorable="x14ac xr xr2 xr3">
+  <x:sheetPr>
+    <x:outlinePr summaryBelow="1" summaryRight="1"/>
+  </x:sheetPr>
+  <x:dimension ref="A1:I11"/>
+  <x:sheetViews>
+    <x:sheetView tabSelected="1" workbookViewId="0">
+      <x:selection activeCell="F18" sqref="F18 F18:F18"/>
+    </x:sheetView>
+  </x:sheetViews>
+  <x:sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <x:sheetData>
+    <x:row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A1" s="2" t="s">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B1" s="2" t="s">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C1" s="2" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D1" s="2" t="s">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="E1" s="2" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F1" s="2" t="s">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="G1" s="2" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="H1" s="2" t="s">
+        <x:v>9</x:v>
+      </x:c>
+      <x:c r="I1" s="2" t="s">
+        <x:v>10</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A2" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B2" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C2" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D2" s="2" t="n">
+        <x:v>1.29</x:v>
+      </x:c>
+      <x:c r="E2" s="2" t="n">
+        <x:v>6.45</x:v>
+      </x:c>
+      <x:c r="F2" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G2" s="2" t="n">
+        <x:v>6.45</x:v>
+      </x:c>
+      <x:c r="H2" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I2" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A3" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B3" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C3" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D3" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E3" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F3" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G3" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H3" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I3" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A4" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B4" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C4" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D4" s="2" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E4" s="2" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F4" s="2" t="n">
+        <x:v>0.4</x:v>
+      </x:c>
+      <x:c r="G4" s="2" t="n">
+        <x:v>25.2</x:v>
+      </x:c>
+      <x:c r="H4" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I4" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A5" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B5" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C5" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G5" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H5" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I5" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A6" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B6" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C6" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D6" s="2" t="n">
+        <x:v>1.29</x:v>
+      </x:c>
+      <x:c r="E6" s="2" t="n">
+        <x:v>6.45</x:v>
+      </x:c>
+      <x:c r="F6" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G6" s="2" t="n">
+        <x:v>6.45</x:v>
+      </x:c>
+      <x:c r="H6" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I6" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A7" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D7" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E7" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="F7" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G7" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="H7" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I7" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A8" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G8" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H8" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I8" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A9" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="B9" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C9" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G9" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H9" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I9" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A10" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B10" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C10" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D10" s="2" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E10" s="2" t="n">
+        <x:v>42</x:v>
+      </x:c>
+      <x:c r="F10" s="2" t="n">
+        <x:v>0.4</x:v>
+      </x:c>
+      <x:c r="G10" s="2" t="n">
+        <x:v>25.2</x:v>
+      </x:c>
+      <x:c r="H10" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I10" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <x:c r="A11" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B11" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C11" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="D11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G11" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H11" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I11" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="12" spans="1:9">
+      <x:c r="A12" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B12" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C12" s="2" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G12" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H12" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I12" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="13" spans="1:9">
+      <x:c r="A13" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="B13" s="2" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="C13" s="2" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G13" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H13" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I13" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="14" spans="1:9">
+      <x:c r="A14" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B14" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C14" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D14" s="2" t="n">
+        <x:v>15</x:v>
+      </x:c>
+      <x:c r="E14" s="2" t="n">
+        <x:v>30</x:v>
+      </x:c>
+      <x:c r="F14" s="2" t="n">
+        <x:v>0.3</x:v>
+      </x:c>
+      <x:c r="G14" s="2" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="H14" s="2" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="I14" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="15" spans="1:9">
+      <x:c r="A15" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B15" s="2" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="C15" s="2" t="n">
+        <x:v>100</x:v>
+      </x:c>
+      <x:c r="D15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G15" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H15" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I15" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="16" spans="1:9">
+      <x:c r="A16" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B16" s="2" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C16" s="2" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D16" s="2" t="n">
+        <x:v>2.99</x:v>
+      </x:c>
+      <x:c r="E16" s="2" t="n">
+        <x:v>29.9</x:v>
+      </x:c>
+      <x:c r="F16" s="2" t="n">
+        <x:v>0.5</x:v>
+      </x:c>
+      <x:c r="G16" s="2" t="n">
+        <x:v>14.95</x:v>
+      </x:c>
+      <x:c r="H16" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I16" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="17" spans="1:9">
+      <x:c r="A17" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B17" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="D17" s="2" t="n">
+        <x:v>1.29</x:v>
+      </x:c>
+      <x:c r="E17" s="2" t="n">
+        <x:v>5.16</x:v>
+      </x:c>
+      <x:c r="F17" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G17" s="2" t="n">
+        <x:v>5.16</x:v>
+      </x:c>
+      <x:c r="H17" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I17" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="18" spans="1:9">
+      <x:c r="A18" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B18" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C18" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D18" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E18" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F18" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G18" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H18" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I18" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="19" spans="1:9">
+      <x:c r="A19" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="B19" s="2" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="C19" s="2" t="n">
+        <x:v>5</x:v>
+      </x:c>
+      <x:c r="D19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G19" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H19" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I19" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+  </x:sheetData>
+  <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
+  <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <x:pageSetup paperSize="1" scale="100" pageOrder="downThenOver" orientation="default" blackAndWhite="0" draft="0" cellComments="none" errors="displayed"/>
+  <x:headerFooter/>
+  <x:tableParts count="0"/>
+</x:worksheet>
 </file>
--- a/Project0/TempMohit/Data/Orders.xlsx
+++ b/Project0/TempMohit/Data/Orders.xlsx
@@ -516,6 +516,17 @@
         <x:v>6</x:v>
       </x:c>
     </x:row>
+    <x:row r="7" spans="1:3">
+      <x:c r="A7" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B7" s="2" t="n">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="C7" s="2" t="n">
+        <x:v>126</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1089,6 +1100,35 @@
         <x:v>20</x:v>
       </x:c>
     </x:row>
+    <x:row r="20" spans="1:9">
+      <x:c r="A20" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B20" s="2" t="s">
+        <x:v>16</x:v>
+      </x:c>
+      <x:c r="C20" s="2" t="n">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="D20" s="2" t="n">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="E20" s="2" t="n">
+        <x:v>210</x:v>
+      </x:c>
+      <x:c r="F20" s="2" t="n">
+        <x:v>0.4</x:v>
+      </x:c>
+      <x:c r="G20" s="2" t="n">
+        <x:v>126</x:v>
+      </x:c>
+      <x:c r="H20" s="2" t="s">
+        <x:v>17</x:v>
+      </x:c>
+      <x:c r="I20" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Project0/TempMohit/Data/Orders.xlsx
+++ b/Project0/TempMohit/Data/Orders.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <x:si>
     <x:t>OrderId</x:t>
   </x:si>
@@ -105,6 +105,9 @@
   </x:si>
   <x:si>
     <x:t>xbox</x:t>
+  </x:si>
+  <x:si>
+    <x:t>rain jackets</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -527,6 +530,17 @@
         <x:v>126</x:v>
       </x:c>
     </x:row>
+    <x:row r="8" spans="1:3">
+      <x:c r="A8" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B8" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="C8" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1129,6 +1143,122 @@
         <x:v>15</x:v>
       </x:c>
     </x:row>
+    <x:row r="21" spans="1:9">
+      <x:c r="A21" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B21" s="2" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="C21" s="2" t="n">
+        <x:v>3</x:v>
+      </x:c>
+      <x:c r="D21" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="E21" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="F21" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G21" s="2" t="n">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="H21" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I21" s="2" t="s">
+        <x:v>15</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="22" spans="1:9">
+      <x:c r="A22" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B22" s="2" t="s">
+        <x:v>11</x:v>
+      </x:c>
+      <x:c r="C22" s="2" t="n">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="D22" s="2" t="n">
+        <x:v>1.29</x:v>
+      </x:c>
+      <x:c r="E22" s="2" t="n">
+        <x:v>18.06</x:v>
+      </x:c>
+      <x:c r="F22" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G22" s="2" t="n">
+        <x:v>18.06</x:v>
+      </x:c>
+      <x:c r="H22" s="2" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="I22" s="2" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="23" spans="1:9">
+      <x:c r="A23" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B23" s="2" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="C23" s="2" t="n">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="D23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G23" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H23" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I23" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="24" spans="1:9">
+      <x:c r="A24" s="2" t="n">
+        <x:v>7</x:v>
+      </x:c>
+      <x:c r="B24" s="2" t="s">
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="C24" s="2" t="n">
+        <x:v>1</x:v>
+      </x:c>
+      <x:c r="D24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="E24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="F24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="G24" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="H24" s="2" t="s">
+        <x:v>19</x:v>
+      </x:c>
+      <x:c r="I24" s="2" t="s">
+        <x:v>20</x:v>
+      </x:c>
+    </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>
   <x:pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
